--- a/notebooks/assets/test_random_selection/kerasnh3_st0_01_mountains.xlsx
+++ b/notebooks/assets/test_random_selection/kerasnh3_st0_01_mountains.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,128 +467,172 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.744</v>
+        <v>3.271</v>
       </c>
       <c r="C2" t="n">
-        <v>2.263</v>
+        <v>1.791</v>
       </c>
       <c r="D2" t="n">
-        <v>5.826</v>
+        <v>3.798</v>
       </c>
       <c r="E2" t="n">
-        <v>5.029</v>
+        <v>2.802</v>
       </c>
       <c r="F2" t="n">
-        <v>3.233</v>
+        <v>1.795</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>MSE_sensor</t>
+          <t>RMSE_sensor</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50.995</v>
+        <v>4.223</v>
       </c>
       <c r="C3" t="n">
-        <v>13.256</v>
+        <v>2.965</v>
       </c>
       <c r="D3" t="n">
-        <v>79.968</v>
+        <v>5.089</v>
       </c>
       <c r="E3" t="n">
-        <v>57.942</v>
+        <v>3.693</v>
       </c>
       <c r="F3" t="n">
-        <v>28.001</v>
+        <v>2.161</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>R2_sensor</t>
+          <t>MSE_sensor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.892</v>
+        <v>19.333</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8110000000000001</v>
+        <v>9.454000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>0.709</v>
+        <v>27.256</v>
       </c>
       <c r="E4" t="n">
-        <v>0.87</v>
+        <v>13.94</v>
       </c>
       <c r="F4" t="n">
-        <v>0.83</v>
+        <v>5.319</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>MAE_cams</t>
+          <t>R2_sensor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.196999999999999</v>
+        <v>0.957</v>
       </c>
       <c r="C5" t="n">
-        <v>4.031</v>
+        <v>0.864</v>
       </c>
       <c r="D5" t="n">
-        <v>10.073</v>
+        <v>0.895</v>
       </c>
       <c r="E5" t="n">
-        <v>9.247</v>
+        <v>0.966</v>
       </c>
       <c r="F5" t="n">
-        <v>4.327</v>
+        <v>0.967</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>MSE_cams</t>
+          <t>MAE_cams</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>118.847</v>
+        <v>8.196999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>38.357</v>
+        <v>4.031</v>
       </c>
       <c r="D6" t="n">
-        <v>225.879</v>
+        <v>10.073</v>
       </c>
       <c r="E6" t="n">
-        <v>243.268</v>
+        <v>9.247</v>
       </c>
       <c r="F6" t="n">
-        <v>51.953</v>
+        <v>4.327</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
+          <t>RMSE_cams</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>10.86</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6.169</v>
+      </c>
+      <c r="D7" t="n">
+        <v>14.998</v>
+      </c>
+      <c r="E7" t="n">
+        <v>15.436</v>
+      </c>
+      <c r="F7" t="n">
+        <v>7.145</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>MSE_cams</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>118.847</v>
+      </c>
+      <c r="C8" t="n">
+        <v>38.357</v>
+      </c>
+      <c r="D8" t="n">
+        <v>225.879</v>
+      </c>
+      <c r="E8" t="n">
+        <v>243.268</v>
+      </c>
+      <c r="F8" t="n">
+        <v>51.953</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
           <t>R2_cams</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B9" t="n">
         <v>0.736</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C9" t="n">
         <v>0.456</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D9" t="n">
         <v>0.18</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E9" t="n">
         <v>0.445</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F9" t="n">
         <v>0.695</v>
       </c>
     </row>
